--- a/medicine/Mort/Décès_en_1969/Décès_en_1969.xlsx
+++ b/medicine/Mort/Décès_en_1969/Décès_en_1969.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1969</t>
+          <t>Décès_en_1969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1969</t>
+          <t>Décès_en_1969</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,15 +540,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Paul Boesch, artiste peintre et peintre héraldiste suisse (° 1889).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Paul Boesch, artiste peintre et peintre héraldiste suisse (° 1889).
 Anselme Boix-Vives, peintre français d'origine espagnole (° 1899).
 Mohamed Boumezrag, footballeur algérien (° 13 juin 1921).
 Jean Chaperon, peintre, illustrateur et caricaturiste français (° 1887).
 Lili Labassi, musicien et interprète algérien de chansons judéo-arabe (° 1897).
-Okabe Shigeo, peintre japonais (° 1912).
-Janvier
-6 janvier : Vincenzo Borgarello, coureur cycliste italien (° 9 mai 1884).
+Okabe Shigeo, peintre japonais (° 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : Vincenzo Borgarello, coureur cycliste italien (° 9 mai 1884).
 8 janvier :
 Gérard Cochet, peintre et graveur français (° 13 octobre 1888).
 Albert Roure, général français (° 26 février 1869).
@@ -551,9 +602,43 @@
 23 janvier : Jaroslav Křička, compositeur tchèque (° 27 août 1882).
 29 janvier : Allen Dulles, diplomate américain, ancien directeur de la CIA (° 7 avril 1893).
 30 janvier : Achille Capliez, peintre français (° 22 mai 1880).
-31 janvier : René Buzelin, journaliste français (° 7 janvier 1886).
-Février
-2 février : Boris Karloff, acteur britannique (° 23 novembre 1887).
+31 janvier : René Buzelin, journaliste français (° 7 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Boris Karloff, acteur britannique (° 23 novembre 1887).
 4 février : Léonard Bordes, peintre français de l'École de Rouen (° 14 mai 1898).
 11 février : Dario Beni, coureur cycliste italien (° 1er janvier 1889).
 12 février : Anton Waibel, communiste allemand (° 11 mars 1889).
@@ -566,9 +651,43 @@
 21 février : Lewis Martin, acteur américain (° 1er novembre 1894).
 26 février : Karl Jaspers, philosophe et psychiatre allemand (° 23 février 1883).
 27 février : Marius Barbeau, anthropologue, ethnologue, folkloriste canadien (° 5 mars 1883).
-28 février : Gustavo Testa, cardinal et nonce apostolique italien (° 28 juillet 1886).
-Mars
-1er mars : Hédi Turki, peintre tunisien (° 1902 ou 1903).
+28 février : Gustavo Testa, cardinal et nonce apostolique italien (° 28 juillet 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Hédi Turki, peintre tunisien (° 1902 ou 1903).
 5 mars : Raymond Besse, peintre français (° 26 décembre 1899).
 12 mars :
 Ignacio Piñeiro, musicien cubain (° 21 mai 1888).
@@ -585,9 +704,43 @@
 Gustavo Durán, musicien, militaire, écrivain et diplomate espagnol (° 1906).
 John Kennedy Toole, écrivain américain (° 17 décembre 1937).
 27 mars : Gaston Lavrillier, médailleur, peintre et sculpteur français (° 13 novembre 1890).
-28 mars : Dwight Eisenhower, militaire et 34e président des États-Unis (° 14 octobre 1890).
-Avril
-1er avril : Ernest Witty, footballeur, tennisman et dirigeant sportif hispano-anglais (° 31 août 1880).
+28 mars : Dwight Eisenhower, militaire et 34e président des États-Unis (° 14 octobre 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Ernest Witty, footballeur, tennisman et dirigeant sportif hispano-anglais (° 31 août 1880).
 3 avril : Rex Evans, acteur britannique (° 13 avril 1903).
 5 avril : José Domingo Molina Gómez, militaire et homme politique argentin (° 26 septembre 1896).
 6 avril : Jean Fieux, ingénieur français (° 28 mars 1886).
@@ -600,9 +753,43 @@
 19 avril : Paul Doll, peintre, illustrateur et décorateur français (° 29 avril 1894).
 21 avril : He Guoguang, homme politique chinois (° 30 novembre 1885).
 22 avril : Yves Alix, peintre, graveur et écrivain français (° 19 août 1890).
-26 avril : Morihei Ueshiba, fondateur de l'Aïkido (° 14 décembre 1883).
-Mai
-2 mai : Jef Demuysere, coureur cycliste belge (° 22 août 1907).
+26 avril : Morihei Ueshiba, fondateur de l'Aïkido (° 14 décembre 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Jef Demuysere, coureur cycliste belge (° 22 août 1907).
 4 mai : Éliane Petit de La Villéon, peintre, graveuse et sculptrice française (° 11 février 1910).
 5 mai : Anton Manastirski, peintre austro-hongrois puis soviétique (° 2 novembre 1878).
 6 mai : Jacques de La Presle, compositeur et professeur français (° 5 juillet 1888).
@@ -614,9 +801,43 @@
 24 mai : Paul Birch, acteur américain (° 13 janvier 1912).
 27 mai : Jeffrey Hunter, acteur américain (° 25 novembre 1926).
 29 mai : André Nivard, peintre français (° 21 avril 1880).
-? mai : Jules Antoine Van den Weghe, footballeur français (° avril 1889).
-Juin
-4 juin : Joseph Stany Gauthier, peintre, architecte-décorateur, enseignant et conservateur de musée français (° 30 avril 1883).
+? mai : Jules Antoine Van den Weghe, footballeur français (° avril 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Joseph Stany Gauthier, peintre, architecte-décorateur, enseignant et conservateur de musée français (° 30 avril 1883).
 7 juin : Dan Bullock, militaire américain (° 21 décembre 1953).
 8 juin : Robert Taylor, acteur américain (° 5 août 1911).
 10 juin : Frank Lawton, acteur anglais (° 30 septembre 1904).
@@ -631,9 +852,43 @@
 Stanley Andrews, acteur américain (° 28 août 1891).
 Hélène Perdriat, peintre figurative et graveuse française (° 27 juin 1889).
 24 juin : Josef Honys, poète, peintre et écrivain tchécoslovaque (° 10 novembre 1919).
-29 juin : Vesselin Stoyanov, compositeur bulgare (° 20 avril 1902).
-Juillet
-3 juillet : Brian Jones, musicien (The Rolling Stones) britannique (° 28 février 1942).
+29 juin : Vesselin Stoyanov, compositeur bulgare (° 20 avril 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet : Brian Jones, musicien (The Rolling Stones) britannique (° 28 février 1942).
 4 juillet : Georges Ronsse, coureur cycliste belge (° 4 mars 1906).
 5 juillet :
 Walter Gropius, architecte, designer et urbaniste allemand (° 18 mai 1883).
@@ -652,9 +907,43 @@
 24 juillet : Witold Gombrowicz, écrivain polonais (° 4 août 1904).
 25 juillet :
 Victor Louis Cuguen, peintre français (° 24 août 1882)
-Otto Dix, peintre allemand (° 2 décembre 1891).
-Août
-2 août :  Francis Pasquier, peintre, dessinateur d'affiches et illustrateur français (° 22 juin 1901).
+Otto Dix, peintre allemand (° 2 décembre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août :  Francis Pasquier, peintre, dessinateur d'affiches et illustrateur français (° 22 juin 1901).
 7 août : Joseph Kosma, compositeur franco-hongrois (° 22 octobre 1905).
 9 août : Sharon Tate, actrice américaine (° 24 janvier 1943).
 10 août : Alfonso Navarro, footballeur espagnol (° 8 avril 1929).
@@ -667,9 +956,43 @@
 Zeng Yangfu, homme politique chinois du Kuomintang (° 23 octobre 1898).
 31 août :
 Rocky Marciano, boxeur américain (° 1er septembre 1923).
-Johannes Müller, compositeur, ténor d'opéra et acteur allemand (° 23 juillet 1893).
-Septembre
-2 septembre : Hô Chi Minh, président du Viêt Nam (° 19 mai 1890).
+Johannes Müller, compositeur, ténor d'opéra et acteur allemand (° 23 juillet 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Hô Chi Minh, président du Viêt Nam (° 19 mai 1890).
 3 septembre : Marcel Pierre, sculpteur et peintre français (° 15 avril 1897).
 8 septembre : Alexandra David-Néel, exploratrice française (° 24 octobre 1868).
 11 septembre : Mario Cavaglieri, peintre italien (° 10 juillet 1887).
@@ -679,10 +1002,44 @@
 18 septembre :
 Gustave Corlin, peintre français (° 10 juin 1875).
 Pierre Favier, peintre français (° 13 juillet 1899).
-24 septembre : Rodolfo Biagi, pianiste, compositeur et chef d'orchestre argentin de tango (° 14 mars 1906).
-Octobre
-1er octobre :
-Gunnar Andersson, footballeur franco-suédois (° 14 août 1928)[1]
+24 septembre : Rodolfo Biagi, pianiste, compositeur et chef d'orchestre argentin de tango (° 14 mars 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre :
+Gunnar Andersson, footballeur franco-suédois (° 14 août 1928)
 A.D. Patel, homme politique fidjien (° 13 mars 1905).
 2 octobre : Noël Nouet, poète, peintre  et dessinateur français (° 30 mars 1885).
 3 octobre : Neal Burns, acteur, scénariste et réalisateur américain (° 26 juin 1892).
@@ -703,17 +1060,85 @@
 23 octobre : Robert Dussaut, compositeur français (° 19 septembre 1896).
 27 octobre :
 Valentin Držkovic, peintre impressionniste austro-hongrois puis tchécoslovaque (° 10 février 1888).
-Jaume Pahissa, compositeur et musicologue d'origine espagnole (° 7 octobre 1880).
-Novembre
-7 novembre : Arthur Witty, footballeur anglo-espagnol, 4e président du FC Barcelone (° 1878).
+Jaume Pahissa, compositeur et musicologue d'origine espagnole (° 7 octobre 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>7 novembre : Arthur Witty, footballeur anglo-espagnol, 4e président du FC Barcelone (° 1878).
 13 novembre : Vladimir Vladimirov, peintre et architecte russe puis soviétique (° 6 juillet 1886).
 18 novembre : Léon Jongen, compositeur, pianiste, chef d'orchestre et professeur belge (° 2 mars 1884).
 20 novembre : Violet Alva, femme politique indienne, ministre (° 24 avril 1908).
 26 novembre : Édouard Cortès, peintre post-impressionniste français (° 6 août 1882).
 28 novembre : Roy Barcroft, acteur américain (° 7 septembre 1902).
-29 novembre : Diamond Jenness, anthropologue canadien (° 10 février 1886).
-Décembre
-2 décembre : José María Arguedas, écrivain et anthropologue péruvien (° 18 janvier 1911).
+29 novembre : Diamond Jenness, anthropologue canadien (° 10 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : José María Arguedas, écrivain et anthropologue péruvien (° 18 janvier 1911).
 3 décembre : Mathias Wieman, acteur allemand (° 23 juin 1902).
 5 décembre : Alice de Battenberg, princesse de Grèce et de Danemark (° 25 février 1885).
 6 décembre : Walther Aeschbacher, chef d'orchestre et compositeur de musique classique suisse (° 2 octobre 1901).
@@ -734,9 +1159,43 @@
 Louise de Vilmorin, romancière française (° 4 avril 1902).
 29 décembre : Gotthard Schuh, peintre et reporter photographe suisse (° 22 décembre 1897).
 30 décembre : Angelina Beloff, peintre pleinairiste, graveuse, illustratrice de livres et auteure pour le théâtre de marionnettes mexicaine d'origine russe (° 23 juin 1879).
-31 décembre : Maurice Félicien Jules Paul Blanchard, peintre français (° 14 janvier 1903).
-Date inconnue
-Kim Chon-hae, homme politique nord-coréen (° 10 mai 1898).
+31 décembre : Maurice Félicien Jules Paul Blanchard, peintre français (° 14 janvier 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1969</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Kim Chon-hae, homme politique nord-coréen (° 10 mai 1898).
 Trần Quang Trân, peintre, artiste laqueur, dessinateur et illustrateur vietnamien (° 1900).</t>
         </is>
       </c>
